--- a/l.xlsx
+++ b/l.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
